--- a/public/2022111-Internal.xlsx
+++ b/public/2022111-Internal.xlsx
@@ -626,7 +626,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>27</v>
